--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>894588.6547568461</v>
+        <v>932476.9850253687</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248445</v>
+        <v>492028.9342484433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7334515.520819637</v>
+        <v>7359768.047893483</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>170.5944416020045</v>
       </c>
       <c r="E2" t="n">
-        <v>325.5800738246913</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +817,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>159.5828560759984</v>
+        <v>64.30808778876194</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>54.39785021488559</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>351.9678051762053</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>152.355512532834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>418.7069096796287</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1145,13 +1145,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>66.68407015799808</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1199,7 +1199,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>11.59112484347351</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1370,10 +1370,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>165.7499153537897</v>
       </c>
       <c r="D11" t="n">
-        <v>246.7675307998102</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>67.37282263167548</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>208.2631588479953</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1588,10 +1588,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.4855017772222</v>
+        <v>32.67077719907286</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.76594660771014</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1825,10 +1825,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>129.713962706846</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>91.39226931002372</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>136.6047512078524</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2005,7 +2005,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>28.8556017839858</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2056,10 +2056,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>193.8659438253727</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2093,13 +2093,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>129.7853418074802</v>
       </c>
       <c r="H20" t="n">
-        <v>18.22772027659513</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571957</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2479,10 +2479,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>104.9141091864658</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>5.990622819018719</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2725,10 +2725,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>22.28534392847715</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225694</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,10 +3013,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>81.01098805494659</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3187,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888196</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3424,7 +3424,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>10.04027365720006</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225797</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507799956</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>84.01976803536627</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3709,7 +3709,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3718,7 +3718,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>251.1332754065556</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3755,10 +3755,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112149</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3803,10 +3803,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>174.6874122691343</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3904,7 +3904,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,7 +3913,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>28.46824604904403</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3992,10 +3992,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4040,10 +4040,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="45">
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>101.7706336613761</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855521</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>713.1287414982547</v>
       </c>
       <c r="C2" t="n">
-        <v>1620.659365270951</v>
+        <v>274.986268681678</v>
       </c>
       <c r="D2" t="n">
-        <v>1192.077691008219</v>
+        <v>102.6686509018755</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>72.93431010057478</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>49.10728455018657</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018657</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018657</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018657</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031044</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311663</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311663</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311663</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311663</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489118</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797677</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756272</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509328</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693165</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693165</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693165</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693165</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1966.856899104199</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1547.714435683509</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>1139.428311983163</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414793</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781216</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246749</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516286</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677902</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.8429367339741</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018657</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064416</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768565</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>399.7292826768565</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940214</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940214</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940214</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940214</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028995</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477378</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807948</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.9361456031418</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420217</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212424</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.1384727187784</v>
+        <v>931.9014488530611</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>866.9437844199682</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>701.0657916214909</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>531.3077878722281</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>354.6007338339843</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>189.009458859812</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018657</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018657</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148764</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>410.445424286012</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>828.6553060539732</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1730.397976392531</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2150.067225618312</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452644996</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509328</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.9464062147</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.9464062147</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.9464062147</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>2155.513405467806</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>1868.557897338236</v>
       </c>
       <c r="W4" t="n">
-        <v>859.7685167902448</v>
+        <v>1596.531492924528</v>
       </c>
       <c r="X4" t="n">
-        <v>614.3767621236573</v>
+        <v>1351.13973825794</v>
       </c>
       <c r="Y4" t="n">
-        <v>386.9570914377655</v>
+        <v>1123.720067572048</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>956.3642220164563</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C5" t="n">
-        <v>922.2621532402836</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D5" t="n">
-        <v>890.3927724551322</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1354.309253581271</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>998.7862180497506</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>997.9711675011879</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>982.8691081209026</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y5" t="n">
-        <v>978.6233884609601</v>
+        <v>2245.857592802233</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.94366860160834</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>558.1193721211221</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>524.0173033449494</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>492.1479225597979</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>462.4135817584971</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>438.5865562081089</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>37.18872483137276</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137276</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851276</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114306</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>473.4386690283521</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>473.4386690283521</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>473.4386690283521</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>473.4386690283521</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>928.4913703274476</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1383.544071626543</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925638</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925638</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925638</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925638</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1771.239126301398</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1408.622176235224</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1003.766721646258</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>584.6242582255684</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>580.3785385656258</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330011</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599548</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230029</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851276</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897035</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842781</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842781</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842781</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>611.7991167809694</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>611.7991167809694</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>611.7991167809694</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="E10" t="n">
-        <v>442.0411130317067</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="F10" t="n">
-        <v>265.3340589934629</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934629</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838374</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851276</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232026</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943382</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>398.1100751943382</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>853.1627764934337</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1295.421579651078</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1670.403998061306</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061306</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925638</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925638</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925638</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925638</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.163772178744</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1548.455565266144</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1276.429160852436</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1031.037406185848</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>803.6177354999566</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2336.308741984729</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C11" t="n">
-        <v>1898.166269168152</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111516</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>1607.050630386892</v>
       </c>
       <c r="M11" t="n">
-        <v>3292.83610851071</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N11" t="n">
-        <v>3292.83610851071</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.83610851071</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344106</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302701</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055758</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928796</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245813</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.892354179639</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590673</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3170.894436169984</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2762.608312469637</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5127,13 +5127,13 @@
         <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1087.134188067672</v>
+        <v>1078.256218512436</v>
       </c>
       <c r="C13" t="n">
-        <v>914.5724765508969</v>
+        <v>905.694506995661</v>
       </c>
       <c r="D13" t="n">
-        <v>748.6944837524196</v>
+        <v>739.8165141971837</v>
       </c>
       <c r="E13" t="n">
-        <v>578.9364800031568</v>
+        <v>570.058510447921</v>
       </c>
       <c r="F13" t="n">
-        <v>402.229425964913</v>
+        <v>393.3514564096772</v>
       </c>
       <c r="G13" t="n">
-        <v>236.6381509907407</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111516</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5203,10 +5203,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5227,22 +5227,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2343.787390762724</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2065.354390015829</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1778.398881886259</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1506.372477472551</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="X13" t="n">
-        <v>1506.372477472551</v>
+        <v>1497.494507917315</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.952806786659</v>
+        <v>1270.074837231423</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C14" t="n">
         <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.548181578288</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>787.6807519874956</v>
       </c>
       <c r="G14" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397516</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5282,31 +5282,31 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693461</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693461</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263767</v>
+        <v>3292.836108510714</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097163</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055758</v>
+        <v>4667.644769302704</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239595</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="T14" t="n">
-        <v>4544.575746323208</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="U14" t="n">
         <v>4544.575746323208</v>
@@ -5321,7 +5321,7 @@
         <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="15">
@@ -5349,13 +5349,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K15" t="n">
         <v>1102.064021433509</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776222</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777443</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064398</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418843</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.468441289274</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1449.442036875565</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X16" t="n">
-        <v>1449.442036875565</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y16" t="n">
-        <v>1222.022366189673</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872687</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
         <v>1648.906137047132</v>
@@ -5507,55 +5507,55 @@
         <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J17" t="n">
-        <v>403.2461837293665</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>1237.596475687544</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.83610851071</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344106</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302701</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112633</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.85743042965</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363477</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.38502577451</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353821</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y17" t="n">
         <v>2949.257965174172</v>
@@ -5586,28 +5586,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.794137292997</v>
+        <v>784.8119928040987</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.232425776222</v>
+        <v>612.2502812873237</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777442</v>
+        <v>583.1032087782471</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284815</v>
+        <v>413.3452050289844</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902377</v>
+        <v>236.6381509907406</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>236.6381509907406</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064398</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583914</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460366</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U19" t="n">
-        <v>2112.450585778171</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V19" t="n">
-        <v>2112.450585778171</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W19" t="n">
-        <v>1840.424181364463</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X19" t="n">
-        <v>1595.032426697876</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y19" t="n">
-        <v>1367.612756011984</v>
+        <v>976.6306115230859</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168568</v>
+        <v>2252.656868168569</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.514395351991</v>
+        <v>1814.514395351992</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526436</v>
+        <v>1378.604610526437</v>
       </c>
       <c r="E20" t="n">
-        <v>944.829865684731</v>
+        <v>944.8298656847319</v>
       </c>
       <c r="F20" t="n">
-        <v>516.9624360939387</v>
+        <v>516.9624360939397</v>
       </c>
       <c r="G20" t="n">
-        <v>115.5646047172026</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5756,46 +5756,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510713</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344109</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302703</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429652</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363478</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774512</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353822</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653476</v>
+        <v>2678.956438653477</v>
       </c>
     </row>
     <row r="21">
@@ -5823,13 +5823,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K21" t="n">
         <v>1102.064021433509</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580464</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D22" t="n">
-        <v>608.792309442794</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935313</v>
+        <v>439.0343056935314</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552875</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J22" t="n">
         <v>183.3156618458051</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119685</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.84397037279</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X22" t="n">
         <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477033</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.710185817961</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C25" t="n">
-        <v>926.1484743011862</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="D25" t="n">
-        <v>760.2704815027089</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="E25" t="n">
-        <v>590.5124777534462</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F25" t="n">
-        <v>413.8054237152024</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>248.2141487410301</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>108.3119744314046</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6148,13 +6148,13 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745665</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N25" t="n">
         <v>1783.551532113124</v>
@@ -6178,19 +6178,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V25" t="n">
-        <v>2035.366634303136</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1763.340229889428</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X25" t="n">
-        <v>1517.94847522284</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1290.528804536948</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>949.5782250957673</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>777.0165135789922</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>611.1385207805149</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>441.3805170312521</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>264.6734629930083</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181458</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.414238779902</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,10 +6774,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
         <v>1107.588885023173</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130894</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>790.3368563937642</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>790.3368563937642</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>624.4588635952869</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>454.7008598460241</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>277.9938058077803</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>112.402530833608</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127512</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7163,7 +7163,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,43 +7181,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7230,16 +7230,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G39" t="n">
         <v>143.9964924545671</v>
@@ -7251,7 +7251,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K39" t="n">
         <v>1107.588885023173</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>949.5782250957677</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C40" t="n">
-        <v>777.0165135789927</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D40" t="n">
-        <v>611.1385207805154</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>441.3805170312527</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>441.3805170312527</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>275.7892420570803</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K40" t="n">
         <v>463.598980006605</v>
@@ -7357,25 +7357,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T40" t="n">
-        <v>2451.623182457407</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2173.190181710512</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1886.234673580942</v>
+        <v>1760.278837850371</v>
       </c>
       <c r="W40" t="n">
-        <v>1614.208269167234</v>
+        <v>1488.252433436663</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.816514500647</v>
+        <v>1242.860678770075</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.396843814755</v>
+        <v>1015.441008084184</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651787</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009655</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.07304516795</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771579</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004218</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7418,43 +7418,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="N41" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O41" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="42">
@@ -7467,16 +7467,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G42" t="n">
         <v>143.9964924545671</v>
@@ -7488,7 +7488,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K42" t="n">
         <v>1107.588885023173</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.659051657336</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="C43" t="n">
-        <v>920.0973401405612</v>
+        <v>639.1929661716165</v>
       </c>
       <c r="D43" t="n">
-        <v>754.2193473420839</v>
+        <v>473.3149733731392</v>
       </c>
       <c r="E43" t="n">
-        <v>584.4613435928212</v>
+        <v>473.3149733731392</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545774</v>
+        <v>296.6079193348954</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>131.016644360723</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7567,7 +7567,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K43" t="n">
         <v>463.598980006605</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>2013.948813008508</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1741.9224085948</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1496.530653928212</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1269.11098324232</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7628,70 +7628,70 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O44" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P44" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7704,16 +7704,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D45" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G45" t="n">
         <v>143.9964924545671</v>
@@ -7725,7 +7725,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K45" t="n">
         <v>1107.588885023173</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>407.7542895545774</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7804,52 +7804,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354741</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066097</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745707</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955484</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.22078133891</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309252</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="S46" t="n">
-        <v>2594.704009018976</v>
+        <v>2559.679081471581</v>
       </c>
       <c r="T46" t="n">
-        <v>2594.704009018976</v>
+        <v>2313.799635050036</v>
       </c>
       <c r="U46" t="n">
-        <v>2316.271008272081</v>
+        <v>2035.366634303141</v>
       </c>
       <c r="V46" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419178</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773322</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>40.34758805803517</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.841056877332</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213855044</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773321</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>138.4891182087717</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.426309209011606</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314096</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314095</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314095</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314095</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.2218006662711</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314095</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,19 +8614,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314096</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>378.7701196062908</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8690,19 +8690,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>860.0355415814543</v>
+        <v>712.7331429833466</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,10 +8930,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294913</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807141</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>309.6062697457085</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9404,7 +9404,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>955.8742281294903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10370,7 +10370,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11066,16 +11066,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>268.0111327346212</v>
       </c>
       <c r="D11" t="n">
-        <v>184.7831561774897</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>96.56253959275513</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>35.15749310933398</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>11.38105307846953</v>
+        <v>185.1957776566189</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>144.1344859240871</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>267.598511255488</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>267.5985112554907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>135.3636110865067</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>81.78272691405303</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23981,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>267.5985112554885</v>
       </c>
       <c r="H20" t="n">
-        <v>268.0111327346208</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>59.30510368402673</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>81.78272691405269</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>141.6500182959535</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627264</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>161.926849064975</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>128.4628789093292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>54.48338453116295</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>32.9526776417182</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.21302026266298</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>110.0349065174852</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>55.87832135360725</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>139.5921776627217</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>627694.3212581143</v>
+        <v>635469.733379464</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>627694.3212581143</v>
+        <v>637671.5229042482</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>629144.5650836081</v>
+        <v>637671.5229042482</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>620293.1932960541</v>
+        <v>620293.1932960543</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620293.1932960541</v>
+        <v>620293.1932960544</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>620293.1932960541</v>
+        <v>620293.1932960544</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620293.1932960543</v>
+        <v>620293.1932960544</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>646470.2748733615</v>
+        <v>646470.2748733616</v>
       </c>
     </row>
     <row r="10">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>646470.2748733615</v>
+        <v>646470.2748733616</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335092.0749315053</v>
+        <v>335092.0749315052</v>
       </c>
       <c r="C2" t="n">
         <v>335092.0749315052</v>
@@ -26320,37 +26320,37 @@
         <v>335092.0749315051</v>
       </c>
       <c r="E2" t="n">
-        <v>315952.4362322977</v>
+        <v>315952.4362322976</v>
       </c>
       <c r="F2" t="n">
         <v>315952.4362322977</v>
       </c>
       <c r="G2" t="n">
-        <v>315952.4362322977</v>
+        <v>315952.4362322978</v>
       </c>
       <c r="H2" t="n">
-        <v>315952.4362322978</v>
+        <v>315952.436232298</v>
       </c>
       <c r="I2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858453</v>
       </c>
       <c r="J2" t="n">
         <v>329285.9900858452</v>
       </c>
       <c r="K2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858453</v>
       </c>
       <c r="L2" t="n">
         <v>329285.9900858452</v>
       </c>
       <c r="M2" t="n">
+        <v>329285.9900858453</v>
+      </c>
+      <c r="N2" t="n">
+        <v>329285.9900858451</v>
+      </c>
+      <c r="O2" t="n">
         <v>329285.9900858452</v>
-      </c>
-      <c r="N2" t="n">
-        <v>329285.9900858452</v>
-      </c>
-      <c r="O2" t="n">
-        <v>329285.9900858451</v>
       </c>
       <c r="P2" t="n">
         <v>329285.9900858452</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039022</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390738</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200275</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520272</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.954454091901425e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283946</v>
+        <v>18364.7156328394</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856127</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784572</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509957</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104675</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.549502166358021e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>158092.3824742628</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511645</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="D4" t="n">
-        <v>187055.8853966616</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>52352.49019908698</v>
+        <v>52352.490199087</v>
       </c>
       <c r="F4" t="n">
-        <v>52352.49019908699</v>
+        <v>52352.49019908701</v>
       </c>
       <c r="G4" t="n">
-        <v>52352.49019908698</v>
+        <v>52352.490199087</v>
       </c>
       <c r="H4" t="n">
-        <v>52352.49019908701</v>
+        <v>52352.490199087</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
@@ -26451,13 +26451,13 @@
         <v>54561.82510962275</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962283</v>
       </c>
       <c r="O4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962283</v>
       </c>
       <c r="P4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962286</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814179</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.2709484697</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579247</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-60220.69351659145</v>
+        <v>-99661.70030480153</v>
       </c>
       <c r="C6" t="n">
-        <v>81970.60714311837</v>
+        <v>95528.81175005097</v>
       </c>
       <c r="D6" t="n">
-        <v>75480.11191437111</v>
+        <v>112869.3561239583</v>
       </c>
       <c r="E6" t="n">
-        <v>-33718.68999646403</v>
+        <v>28268.96999065189</v>
       </c>
       <c r="F6" t="n">
-        <v>190080.6037555632</v>
+        <v>190004.0452007662</v>
       </c>
       <c r="G6" t="n">
-        <v>190080.6037555632</v>
+        <v>190004.0452007664</v>
       </c>
       <c r="H6" t="n">
-        <v>190080.6037555633</v>
+        <v>190004.0452007666</v>
       </c>
       <c r="I6" t="n">
-        <v>178641.2107375904</v>
+        <v>178617.986398208</v>
       </c>
       <c r="J6" t="n">
-        <v>85991.46102543973</v>
+        <v>36374.87254543462</v>
       </c>
       <c r="K6" t="n">
-        <v>197005.92637043</v>
+        <v>183168.6934632016</v>
       </c>
       <c r="L6" t="n">
-        <v>188058.31528192</v>
+        <v>196982.7020310473</v>
       </c>
       <c r="M6" t="n">
-        <v>10214.93975996241</v>
+        <v>61992.75741804393</v>
       </c>
       <c r="N6" t="n">
-        <v>197005.92637043</v>
+        <v>196982.7020310472</v>
       </c>
       <c r="O6" t="n">
-        <v>197005.9263704298</v>
+        <v>196982.7020310472</v>
       </c>
       <c r="P6" t="n">
-        <v>197005.9263704299</v>
+        <v>196982.7020310472</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773321</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314096</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
         <v>1209.19970851394</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773321</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052485</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130525</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825298</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080547</v>
+        <v>69.06079487080524</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773321</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052485</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130525</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825298</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773321</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052485</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130525</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825298</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>260.9562453752955</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E2" t="n">
-        <v>103.8569235685964</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27439,13 +27439,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>11.25323832560895</v>
+        <v>106.5280066128454</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>367.6387245651731</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>7.022975389306396</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>72.78996144619879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>3.32966510043002</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>189.9460094981552</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>54.79268646174563</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>272.4948282048003</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.03913730891415e-12</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="45">
@@ -30876,7 +30876,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4.718003765447065e-12</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773322</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>40.34758805803517</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.841056877332</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213855044</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773321</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>138.4891182087717</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.426309209011606</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314096</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314095</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314095</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314095</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.2218006662711</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314095</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35334,19 +35334,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314096</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>378.7701196062908</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,19 +35410,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>860.0355415814543</v>
+        <v>712.7331429833466</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,10 +35650,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294913</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807141</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>309.6062697457085</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697549</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36124,7 +36124,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>955.8742281294903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36519,10 +36519,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080418</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -36534,7 +36534,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37090,7 +37090,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37473,10 +37473,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37786,16 +37786,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908539</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,13 +38181,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
